--- a/Adult Income Simple RF/Feature_importance_diff_50_5_6331_1.xlsx
+++ b/Adult Income Simple RF/Feature_importance_diff_50_5_6331_1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,94 +465,94 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0401883831590102</v>
+        <v>0.1878233816160014</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5530463180044352</v>
+        <v>0.6097600733003751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.512857934845425</v>
+        <v>0.4219366916843736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>remainder__education-num</t>
+          <t>cat__marital-status_Married-civ-spouse</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2161906188366154</v>
+        <v>0.1829196516050183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02273606114133876</v>
+        <v>0.03073247826416002</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1934545576952766</v>
+        <v>-0.1521871733408582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-civ-spouse</t>
+          <t>remainder__education-num</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2120829844136664</v>
+        <v>0.1772088945829118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06468893971022149</v>
+        <v>0.03009983349789127</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1473940447034449</v>
+        <v>-0.1471090610850205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>remainder__fnlwgt</t>
+          <t>cat__relationship_Husband</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.118093505295252</v>
+        <v>0.08388497323740129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004254675229894406</v>
+        <v>0.03271412107213193</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1138388300653576</v>
+        <v>-0.05117085216526936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cat__relationship_Husband</t>
+          <t>remainder__hours-per-week</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1475199847658016</v>
+        <v>0.05766716982626087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06161095288357852</v>
+        <v>0.02647494363105965</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.08590903188222304</v>
+        <v>-0.03119222619520122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -560,89 +560,89 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.001137937319337363</v>
+        <v>0.06798898258610783</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05536373749573446</v>
+        <v>0.04675060722704209</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0542258001763971</v>
+        <v>-0.02123837535906574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>remainder__Unnamed: 0</t>
+          <t>cat__relationship_Not-in-family</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04098323037088827</v>
+        <v>0.01985084906592113</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004283950114814345</v>
+        <v>0.008067069603460146</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03669928025607392</v>
+        <v>-0.01178377946246098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cat__marital-status_Never-married</t>
+          <t>cat__relationship_Wife</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0622756130905799</v>
+        <v>0.01840022434269375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0851029591775069</v>
+        <v>0.008223934158024519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02282734608692701</v>
+        <v>-0.01017629018466923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cat__relationship_Not-in-family</t>
+          <t>remainder__capital-loss</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01892881767228317</v>
+        <v>0.04754871015621907</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00484505223277785</v>
+        <v>0.05528819143112225</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01408376543950532</v>
+        <v>0.007739481274903183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat__sex_Male</t>
+          <t>cat__workclass_Self-emp-inc</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02967018602268763</v>
+        <v>0.007822589989012555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02328203889053917</v>
+        <v>0.002097132047766698</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.006388147132148463</v>
+        <v>-0.005725457941245857</v>
       </c>
     </row>
     <row r="12">
@@ -655,374 +655,374 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.009009743909969965</v>
+        <v>0.01014345508146998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002668657067774886</v>
+        <v>0.004935335490030173</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.006341086842195079</v>
+        <v>-0.00520811959143981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cat__workclass_Private</t>
+          <t>cat__workclass_Self-emp-not-inc</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001028196603959464</v>
+        <v>0.005246867052818771</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006297585964356796</v>
+        <v>0.001715937994707425</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005269389360397332</v>
+        <v>-0.003530929058111345</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-inc</t>
+          <t>cat__sex_Female</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.005019511917607276</v>
+        <v>0.0101757813924727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008414120434783066</v>
+        <v>0.01289652615642827</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.004178099874128969</v>
+        <v>0.002720744763955571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>remainder__capital-loss</t>
+          <t>cat__workclass_Federal-gov</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03613971813789458</v>
+        <v>0.003629305511631324</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03411274215913322</v>
+        <v>0.00109090151044436</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.002026975978761364</v>
+        <v>-0.002538404001186964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-not-inc</t>
+          <t>cat__workclass_Private</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002295704039542802</v>
+        <v>0.003682096870748815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003201934016110521</v>
+        <v>0.006077005250717862</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.00197551063793175</v>
+        <v>0.002394908379969047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat__relationship_Own-child</t>
+          <t>cat__sex_Male</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01888947909574088</v>
+        <v>0.009002150826046728</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01701631306040099</v>
+        <v>0.01102212274150946</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.001873166035339886</v>
+        <v>0.002019971915462731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cat__marital-status_Widowed</t>
+          <t>remainder__fnlwgt</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001380333871549298</v>
+        <v>0.01615646994217131</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001497182578455198</v>
+        <v>0.01816553942786427</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001359149191300268</v>
+        <v>0.00200906948569296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat__workclass_Federal-gov</t>
+          <t>cat__relationship_Own-child</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.002141991371128253</v>
+        <v>0.01495162714091257</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0008155746308198384</v>
+        <v>0.01344969896459836</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.001326416740308415</v>
+        <v>-0.001501928176314206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat__marital-status_Separated</t>
+          <t>cat__relationship_Unmarried</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0007962873886193767</v>
+        <v>0.007241696290456488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001638320301517029</v>
+        <v>0.0082391778513837</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0008420329128976525</v>
+        <v>0.0009974815609272115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat__relationship_Unmarried</t>
+          <t>cat__marital-status_Widowed</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.007582184618216647</v>
+        <v>0.001203248479386336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008267645206733908</v>
+        <v>0.002022293795948832</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006854605885172615</v>
+        <v>0.0008190453165624965</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat__relationship_Wife</t>
+          <t>cat__marital-status_Never-married</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01255174994609221</v>
+        <v>0.05379120124387952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01187786655533597</v>
+        <v>0.05458136782782658</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0006738833907562417</v>
+        <v>0.0007901665839470523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat__relationship_Other-relative</t>
+          <t>cat__workclass_Without-pay</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001346558347029156</v>
+        <v>5.768806179869289e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0007216894392909274</v>
+        <v>0.0006208327827125643</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0006248689077382285</v>
+        <v>0.0005631447209138715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cat__race_Asian-Pac-Islander</t>
+          <t>cat__marital-status_Married-AF-spouse</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.414471593395057e-05</v>
+        <v>0.0003269522234233987</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0002516004588940364</v>
+        <v>0.0008707992624716956</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002074557429600859</v>
+        <v>0.0005438470390482969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cat__workclass_Local-gov</t>
+          <t>cat__race_Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0004974282873675389</v>
+        <v>0.0005375201804834327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003032775095394604</v>
+        <v>0.00105288215395347</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0001941507778280785</v>
+        <v>0.0005153619734700377</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cat__workclass_State-gov</t>
+          <t>cat__marital-status_Married-spouse-absent</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0002619163073247745</v>
+        <v>0.0005239678494201757</v>
       </c>
       <c r="D26" t="n">
-        <v>6.867283074298641e-05</v>
+        <v>0.0009433288294736198</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0001932434765817881</v>
+        <v>0.0004193609800534441</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cat__race_Black</t>
+          <t>cat__workclass_Local-gov</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0007467689666666574</v>
+        <v>0.002050135061207646</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005628718892503808</v>
+        <v>0.001696050413594917</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0001838970774162765</v>
+        <v>-0.000354084647612729</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-AF-spouse</t>
+          <t>cat__race_Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.456006933416762e-05</v>
+        <v>0.001292040829695937</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000233905003946559</v>
+        <v>0.001629267907570785</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001593449346123914</v>
+        <v>0.0003372270778748483</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat__race_Amer-Indian-Eskimo</t>
+          <t>cat__race_Black</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.458132612649278e-05</v>
+        <v>0.001968789062860166</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002195100319628506</v>
+        <v>0.001718905543343202</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001349287058363578</v>
+        <v>-0.000249883519516964</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat__workclass_Without-pay</t>
+          <t>cat__workclass_State-gov</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.868717978891074e-05</v>
+        <v>0.001419571591132656</v>
       </c>
       <c r="D30" t="n">
-        <v>7.659094917053355e-05</v>
+        <v>0.001257229070234254</v>
       </c>
       <c r="E30" t="n">
-        <v>4.790376938162281e-05</v>
+        <v>-0.0001623425208984021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-spouse-absent</t>
+          <t>cat__relationship_Other-relative</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.000591373391884655</v>
+        <v>0.001333123253840386</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0005436240441323981</v>
+        <v>0.001493549190038737</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.774934775225693e-05</v>
+        <v>0.0001604259361983509</v>
       </c>
     </row>
     <row r="32">
@@ -1035,51 +1035,51 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0001550408740716497</v>
+        <v>0.0004119298205614034</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001873443675763944</v>
+        <v>0.0005279754592020555</v>
       </c>
       <c r="E32" t="n">
-        <v>3.230349350474466e-05</v>
+        <v>0.0001160456386406521</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat__race_White</t>
+          <t>cat__marital-status_Separated</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0004864812802863388</v>
+        <v>0.001551464518425459</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0004643114662995387</v>
+        <v>0.001651147051460576</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.216981398680016e-05</v>
+        <v>9.968253303511672e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat__sex_Female</t>
+          <t>cat__race_White</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01301859789213768</v>
+        <v>0.00218749070760823</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01299783986356271</v>
+        <v>0.002133741091451177</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.075802857496797e-05</v>
+        <v>-5.374961615705297e-05</v>
       </c>
     </row>
   </sheetData>
